--- a/mc_discord_admin_db.xlsx
+++ b/mc_discord_admin_db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>dc_user_id</t>
     <phoneticPr fontId="1"/>
@@ -190,6 +190,81 @@
   </si>
   <si>
     <t>sv_created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>server_versions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sv_ver_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sv_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sv_ver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>build_ver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>download_url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_supported</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.21.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://fill-data.papermc.io/v1/objects/2c825ddbe47897db1efbf1adfef0dbcfee7ebab2f959168cf59a654f3bdd0b36/paper-1.21.10-108.jar</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -409,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +562,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,21 +603,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>674913</xdr:colOff>
+      <xdr:colOff>670091</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>14538</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2714625" y="1090869"/>
-          <a:ext cx="13085988" cy="2905119"/>
+          <a:ext cx="12947816" cy="2905119"/>
           <a:chOff x="2714625" y="1090869"/>
-          <a:chExt cx="13085988" cy="2905119"/>
+          <a:chExt cx="12947816" cy="2905119"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -540,8 +627,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="15134556" y="1108137"/>
-            <a:ext cx="661185" cy="2630"/>
+            <a:off x="14998468" y="1108137"/>
+            <a:ext cx="654447" cy="2630"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -577,7 +664,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2714625" y="3994578"/>
-            <a:ext cx="13081117" cy="1410"/>
+            <a:ext cx="12947816" cy="1410"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -606,8 +693,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="15792450" y="1090869"/>
-            <a:ext cx="8163" cy="2900106"/>
+            <a:off x="15649658" y="1090869"/>
+            <a:ext cx="8080" cy="2900106"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -636,8 +723,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="9305925" y="1114425"/>
-            <a:ext cx="685800" cy="0"/>
+            <a:off x="9306535" y="1114425"/>
+            <a:ext cx="678811" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -930,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N18"/>
+  <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -946,11 +1033,12 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1206,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1214,12 +1302,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="6">
         <v>999</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="K19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="K21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="5">
+        <v>108</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/mc_discord_admin_db.xlsx
+++ b/mc_discord_admin_db.xlsx
@@ -545,6 +545,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -562,18 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P22"/>
+  <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1098,10 +1098,10 @@
       <c r="B4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="16" t="s">
         <v>21</v>
       </c>
@@ -1217,38 +1217,38 @@
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="20" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
     </row>
     <row r="10" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11"/>
@@ -1294,12 +1294,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1309,87 +1312,82 @@
       <c r="C18" s="6">
         <v>999</v>
       </c>
-      <c r="K18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K19" s="26" t="s">
+      <c r="K18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="28" t="s">
+      <c r="P18" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K22" s="4">
+    <row r="21" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K21" s="4">
         <v>1</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L21" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M21" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N21" s="5">
         <v>108</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P22" s="6" t="b">
+      <c r="P21" s="6" t="b">
         <v>1</v>
       </c>
     </row>
